--- a/data/trans_orig/IP25A01_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25A01_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6684D872-EC34-4EAC-BCDF-81E29A7E8D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16E5823-2974-46F6-A7F1-EC97B64C973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F122E52B-8744-4C8F-9582-018105477CB7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64830592-9035-4463-BC16-5C8DB11E8733}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión entre semana en 2023 (Tasa respuesta: 99,06%)</t>
   </si>
@@ -107,25 +107,25 @@
     <t>5,36%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>7,35%</t>
+    <t>7,45%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>11,33%</t>
@@ -134,79 +134,79 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>19,82%</t>
+    <t>20,55%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
   </si>
   <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>53,4%</t>
   </si>
   <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>52,91%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
   </si>
   <si>
     <t>29,91%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -215,46 +215,46 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>9,31%</t>
@@ -263,61 +263,61 @@
     <t>7,75%</t>
   </si>
   <si>
-    <t>10,99%</t>
+    <t>10,9%</t>
   </si>
   <si>
     <t>46,46%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
   <si>
     <t>45,39%</t>
   </si>
   <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
   </si>
   <si>
     <t>45,95%</t>
   </si>
   <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
   </si>
   <si>
     <t>42,17%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -326,145 +326,142 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
   </si>
   <si>
     <t>38,97%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>42,16%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
   </si>
   <si>
     <t>48,94%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>9,2%</t>
@@ -473,70 +470,64 @@
     <t>7,26%</t>
   </si>
   <si>
-    <t>11,5%</t>
+    <t>11,44%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>47,12%</t>
   </si>
   <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
     <t>40,95%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>41,74%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -951,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C47A11-27D4-4F3E-B783-A51C33FD3C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B283D2-4C38-4CC2-8EF7-8B607287B3F4}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1917,13 +1908,13 @@
         <v>26472</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1929,13 @@
         <v>81847</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -1953,13 +1944,13 @@
         <v>58565</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>195</v>
@@ -1968,13 +1959,13 @@
         <v>140411</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +1980,13 @@
         <v>73609</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -2004,13 +1995,13 @@
         <v>73545</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>223</v>
@@ -2019,13 +2010,13 @@
         <v>147154</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,13 +2084,13 @@
         <v>16753</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -2108,13 +2099,13 @@
         <v>23582</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -2123,13 +2114,13 @@
         <v>40335</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2135,13 @@
         <v>69608</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>85</v>
@@ -2159,13 +2150,13 @@
         <v>59197</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -2174,13 +2165,13 @@
         <v>128805</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2186,13 @@
         <v>341159</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>406</v>
@@ -2210,13 +2201,13 @@
         <v>286421</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>858</v>
@@ -2225,13 +2216,13 @@
         <v>627579</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2237,13 @@
         <v>296501</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H27" s="7">
         <v>405</v>
@@ -2261,13 +2252,13 @@
         <v>274408</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M27" s="7">
         <v>810</v>
@@ -2276,13 +2267,13 @@
         <v>570909</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2329,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A01_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25A01_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16E5823-2974-46F6-A7F1-EC97B64C973F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F9E90D1-5427-4108-A676-E3F91C609A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{64830592-9035-4463-BC16-5C8DB11E8733}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{9CF81A15-C63F-41FA-9FAA-BB035BA79068}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión entre semana en 2023 (Tasa respuesta: 99,06%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,469 +65,454 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -942,8 +927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B283D2-4C38-4CC2-8EF7-8B607287B3F4}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51514869-806D-4A81-B626-AA125C052FDC}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1060,194 +1045,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>652</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9586</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7266</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>16852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27945</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>32758</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>60703</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12837</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>18128</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>30965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,253 +1249,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D8" s="7">
+        <v>51020</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>1171</v>
+        <v>61426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>1171</v>
+        <v>112446</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>3118</v>
+        <v>17708</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>656</v>
+        <v>9166</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="N9" s="7">
-        <v>3774</v>
+        <v>26874</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>6595</v>
+        <v>38877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>8622</v>
+        <v>50967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="N10" s="7">
-        <v>15217</v>
+        <v>89844</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="D11" s="7">
-        <v>31077</v>
+        <v>197355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="I11" s="7">
-        <v>24838</v>
+        <v>233641</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>73</v>
+        <v>589</v>
       </c>
       <c r="N11" s="7">
-        <v>55916</v>
+        <v>430996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="D12" s="7">
-        <v>17407</v>
+        <v>201255</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="I12" s="7">
-        <v>13358</v>
+        <v>221706</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>47</v>
+        <v>540</v>
       </c>
       <c r="N12" s="7">
-        <v>30765</v>
+        <v>422961</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,255 +1506,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>637</v>
       </c>
       <c r="D13" s="7">
-        <v>58197</v>
+        <v>455195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>63</v>
+        <v>653</v>
       </c>
       <c r="I13" s="7">
-        <v>47474</v>
+        <v>515480</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>145</v>
+        <v>1290</v>
       </c>
       <c r="N13" s="7">
-        <v>105672</v>
+        <v>970675</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>8776</v>
+        <v>5899</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5075</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="7">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16950</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>25727</v>
+        <v>10974</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>48744</v>
+        <v>12290</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>38371</v>
+        <v>14812</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="N15" s="7">
-        <v>87116</v>
+        <v>27102</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>228235</v>
+        <v>57406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>289</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>201846</v>
+        <v>86268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>589</v>
+        <v>195</v>
       </c>
       <c r="N16" s="7">
-        <v>430081</v>
+        <v>143675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="D17" s="7">
-        <v>205484</v>
+        <v>72876</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="I17" s="7">
-        <v>187506</v>
+        <v>77194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>540</v>
+        <v>223</v>
       </c>
       <c r="N17" s="7">
-        <v>392990</v>
+        <v>150070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,255 +1763,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>653</v>
+        <v>228</v>
       </c>
       <c r="D18" s="7">
-        <v>491240</v>
+        <v>148472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>637</v>
+        <v>238</v>
       </c>
       <c r="I18" s="7">
-        <v>444674</v>
+        <v>183349</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>1290</v>
+        <v>466</v>
       </c>
       <c r="N18" s="7">
-        <v>935914</v>
+        <v>331821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>4858</v>
+        <v>24259</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>5976</v>
+        <v>17515</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N19" s="7">
-        <v>10834</v>
+        <v>41773</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D20" s="7">
-        <v>14269</v>
+        <v>60753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I20" s="7">
-        <v>12204</v>
+        <v>73045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="N20" s="7">
-        <v>26472</v>
+        <v>133798</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="D21" s="7">
-        <v>81847</v>
+        <v>282706</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>85</v>
+        <v>452</v>
       </c>
       <c r="I21" s="7">
-        <v>58565</v>
+        <v>352667</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>195</v>
+        <v>857</v>
       </c>
       <c r="N21" s="7">
-        <v>140411</v>
+        <v>635374</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>106</v>
+        <v>405</v>
       </c>
       <c r="D22" s="7">
-        <v>73609</v>
+        <v>286968</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="I22" s="7">
-        <v>73545</v>
+        <v>317028</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>223</v>
+        <v>810</v>
       </c>
       <c r="N22" s="7">
-        <v>147154</v>
+        <v>603997</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,318 +2020,60 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
+        <v>928</v>
       </c>
       <c r="D23" s="7">
-        <v>174583</v>
+        <v>654687</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>228</v>
+        <v>973</v>
       </c>
       <c r="I23" s="7">
-        <v>150289</v>
+        <v>760255</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>466</v>
+        <v>1901</v>
       </c>
       <c r="N23" s="7">
-        <v>324872</v>
+        <v>1414942</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>21</v>
-      </c>
-      <c r="D24" s="7">
-        <v>16753</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="7">
-        <v>33</v>
-      </c>
-      <c r="I24" s="7">
-        <v>23582</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" s="7">
-        <v>54</v>
-      </c>
-      <c r="N24" s="7">
-        <v>40335</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>95</v>
-      </c>
-      <c r="D25" s="7">
-        <v>69608</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="7">
-        <v>85</v>
-      </c>
-      <c r="I25" s="7">
-        <v>59197</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M25" s="7">
-        <v>180</v>
-      </c>
-      <c r="N25" s="7">
-        <v>128805</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>452</v>
-      </c>
-      <c r="D26" s="7">
-        <v>341159</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="7">
-        <v>406</v>
-      </c>
-      <c r="I26" s="7">
-        <v>286421</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="7">
-        <v>858</v>
-      </c>
-      <c r="N26" s="7">
-        <v>627579</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7">
-        <v>405</v>
-      </c>
-      <c r="D27" s="7">
-        <v>296501</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="7">
-        <v>405</v>
-      </c>
-      <c r="I27" s="7">
-        <v>274408</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="A24" t="s">
         <v>159</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M27" s="7">
-        <v>810</v>
-      </c>
-      <c r="N27" s="7">
-        <v>570909</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7">
-        <v>973</v>
-      </c>
-      <c r="D28" s="7">
-        <v>724020</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="7">
-        <v>929</v>
-      </c>
-      <c r="I28" s="7">
-        <v>643608</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1902</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1367628</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>164</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
